--- a/biology/Zoologie/Colobus/Colobus.xlsx
+++ b/biology/Zoologie/Colobus/Colobus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colobus (du grec kolobos (κολοβος) qui signifie « mutilé ») constitue un genre de mammifères primates de la sous-famille des Colobinae. La classification scientifique de ces singes d'Afrique est encore en évolution. En français on les appelle, entre autres, colobes noir et blancs[1] ou guérézas. Ils se distinguent par l'absence de pouce[2], d'où la qualification de "mutilé".
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colobus (du grec kolobos (κολοβος) qui signifie « mutilé ») constitue un genre de mammifères primates de la sous-famille des Colobinae. La classification scientifique de ces singes d'Afrique est encore en évolution. En français on les appelle, entre autres, colobes noir et blancs ou guérézas. Ils se distinguent par l'absence de pouce, d'où la qualification de "mutilé".
 </t>
         </is>
       </c>
@@ -511,20 +523,22 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (4 mars 2011)[3] et Selon NCBI  (4 mars 2011)[4] :
-Colobus angolensis - Guéréza d'Angola, Colobe d'Angola, Colobe noir-et-blanc d'Angola ou encore Colobe noir-et-blanc angolais[1];
-Colobus guereza - Guéréza du Kilimandjaro, Colobe à épaules blanches ou encore Colobe guéréza[1];
-Colobus polykomos -  Colobe à longs poils, Colobe à camial,  Colobe noir , Colobe blanc-et-noir d'Afrique occidentale,  Colobe magistrat  [1] ou encore magistrat;
-Colobus satanas - Guéréza noir[1], Colobe satan[5] ou  Colobe noir [1];
-Colobus vellerosus - Colobe magistrat [1].
-Selon ITIS      (4 mars 2011)[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (4 mars 2011) et Selon NCBI  (4 mars 2011) :
+Colobus angolensis - Guéréza d'Angola, Colobe d'Angola, Colobe noir-et-blanc d'Angola ou encore Colobe noir-et-blanc angolais;
+Colobus guereza - Guéréza du Kilimandjaro, Colobe à épaules blanches ou encore Colobe guéréza;
+Colobus polykomos -  Colobe à longs poils, Colobe à camial,  Colobe noir , Colobe blanc-et-noir d'Afrique occidentale,  Colobe magistrat   ou encore magistrat;
+Colobus satanas - Guéréza noir, Colobe satan ou  Colobe noir ;
+Colobus vellerosus - Colobe magistrat .
+Selon ITIS      (4 mars 2011) :
 Colobus angolensis P. Sclater, 1860;
 Colobus guereza Rüppell, 1835;
 Colobus polykomos (Zimmermann, 1780);
 Colobus satanas Waterhouse, 1838.
-Il existerait aussi un hybride[4] : Colobus vellerosus x angolensis
+Il existerait aussi un hybride : Colobus vellerosus x angolensis
 </t>
         </is>
       </c>
